--- a/Supp0rts2Bot_all_users.xlsx
+++ b/Supp0rts2Bot_all_users.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SanStroy</t>
+          <t>Саня</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -633,6 +633,72 @@
         <v>5</v>
       </c>
       <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1681126166</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BLACKHAWK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BLACKHAWK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chellolik</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18:50; 25/02/2025</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2133347662</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DenProc2010</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20:01; 28/02/2025</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -715,7 +781,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Димка</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -756,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +928,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Дима</t>
+          <t>Димка</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -977,7 +1043,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>SanStroy</t>
+          <t>Саня</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -997,6 +1063,74 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>1681126166</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>BLACKHAWK</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>BLACKHAWK</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>chellolik</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18:50; 25/02/2025</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2133347662</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>DenProc2010</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20:01; 28/02/2025</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
